--- a/LF/TAS/Kenya/ke_lf_tas1_3_resultat_fts_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_3_resultat_fts_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>Tafadhali weka nambari ya FTS 1</t>
   </si>
   <si>
-    <t>Regex(.,'^[0-9]{6}$')</t>
+    <t>regex(.,'^[0-9]{6}$')</t>
   </si>
   <si>
     <t>The code must be a six-digit number</t>
@@ -1942,10 +1942,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1990,14 +1990,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2012,6 +2004,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2020,42 +2019,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2069,21 +2045,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2097,9 +2066,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2120,6 +2088,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2127,15 +2102,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2162,19 +2162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,13 +2186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2216,7 +2222,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,13 +2288,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,97 +2336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,6 +2376,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2399,6 +2410,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2409,6 +2435,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2427,186 +2462,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3050,12 +3050,12 @@
   <sheetPr/>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4031,7 +4031,7 @@
   <sheetPr/>
   <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A945" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A22" sqref="$A22:$XFD983"/>
